--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_5_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_5_square_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.21000000000035</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.446772506060951e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>2.070345966666958e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5977937708657075</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>50.01846346627993</v>
+        <v>53.2995748217058</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[42.07071257623398, 57.966214356325885]</t>
+          <t>[44.626974614550065, 61.97217502886153]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.46544762419704</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2893423303021176, 1.6415529180919624]</t>
+          <t>[1.5786581702723472, 1.9057108589343494]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>66.08296219622335</v>
+        <v>68.88939393920739</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[61.01776545105718, 71.14815894138951]</t>
+          <t>[63.664432857329544, 74.11435502108525]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.56342342342369</v>
+        <v>17.63443443443471</v>
       </c>
       <c r="X2" t="n">
-        <v>17.88486486486513</v>
+        <v>16.99939939939966</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.24198198198225</v>
+        <v>18.26946946946975</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.57000000000056</v>
+        <v>25.16000000000049</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,30 +663,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.446772506060951e-16</v>
+        <v>2.070345966666958e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>42.51432322220395</v>
+        <v>44.8924971166387</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[32.13498141207925, 52.89366503232865]</t>
+          <t>[35.89564674460058, 53.88934748867682]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.398881011027697e-14</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.398881011027697e-14</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.94973718240808</v>
+        <v>-3.081842643161158</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.226474072814388, -1.6730002920017712]</t>
+          <t>[-3.3082637353117734, -2.8554215510105427]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>58.7616062261764</v>
+        <v>67.11854336941892</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.01958859742077, 64.50362385493204]</t>
+          <t>[61.190141403059705, 73.04694533577813]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>7.934634634634808</v>
+        <v>12.34074074074098</v>
       </c>
       <c r="X3" t="n">
-        <v>6.808428428428576</v>
+        <v>11.4340740740743</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.06084084084104</v>
+        <v>13.24740740740766</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_5_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_5_square_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.40000000000038</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,18 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.070345966666958e-16</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.5977937708657075</v>
-      </c>
+        <v>2.440050603571772e-16</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>53.2995748217058</v>
+        <v>44.38319547509268</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[44.626974614550065, 61.97217502886153]</t>
+          <t>[36.86656773396533, 51.899823216220035]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -601,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.742184514603348</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5786581702723472, 1.9057108589343494]</t>
+          <t>[1.402552876377424, 1.7547634641672722]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -615,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>68.88939393920739</v>
+        <v>61.6311320924157</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[63.664432857329544, 74.11435502108525]</t>
+          <t>[56.65012327621697, 66.61214090861444]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.63443443443471</v>
+        <v>18.23203203203231</v>
       </c>
       <c r="X2" t="n">
-        <v>16.99939939939966</v>
+        <v>17.54954954954981</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.26946946946975</v>
+        <v>18.9145145145148</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.16000000000049</v>
+        <v>25.38000000000053</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,30 +661,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.070345966666958e-16</v>
+        <v>2.440050603571772e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>44.8924971166387</v>
+        <v>44.37387534536524</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[35.89564674460058, 53.88934748867682]</t>
+          <t>[33.06104783845369, 55.68670285227678]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.409983241273949e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.409983241273949e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.081842643161158</v>
+        <v>-2.528368862348542</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.3082637353117734, -2.8554215510105427]</t>
+          <t>[-2.7925268031909263, -2.2642109215061574]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>67.11854336941892</v>
+        <v>64.07366776215017</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[61.190141403059705, 73.04694533577813]</t>
+          <t>[58.03710973916717, 70.11022578513317]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>12.34074074074098</v>
+        <v>10.21297297297318</v>
       </c>
       <c r="X3" t="n">
-        <v>11.4340740740743</v>
+        <v>9.145945945946137</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.24740740740766</v>
+        <v>11.28000000000023</v>
       </c>
     </row>
   </sheetData>
